--- a/BackTest/2020-01-12 BackTest TMTG.xlsx
+++ b/BackTest/2020-01-12 BackTest TMTG.xlsx
@@ -15103,7 +15103,7 @@
         <v>-990567.5691389409</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-1206961.431338941</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-1431199.031538941</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-1379602.332938941</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-1336093.835938941</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-1530061.785138941</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-4926810.173938943</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-5240756.136038943</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-5760260.856738943</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-5768601.335738943</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-6177233.755238943</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-8886869.666338941</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-8888302.075338941</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-8887020.589338941</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-8885315.713338941</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-8886232.402338943</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-8891697.606338942</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-8912488.262838941</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -32956,7 +32956,7 @@
         <v>-9665062.904500198</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +32989,7 @@
         <v>-9677929.397500198</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33022,7 @@
         <v>-9677929.397500198</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33055,7 @@
         <v>-9677237.746500198</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33088,7 @@
         <v>-9675880.345500197</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33121,7 @@
         <v>-9674065.550500197</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33154,7 @@
         <v>-9671709.326500198</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33187,7 @@
         <v>-9670988.588500198</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33220,7 @@
         <v>-9669897.158500198</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33253,7 @@
         <v>-9668322.046500199</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33286,7 @@
         <v>-9668322.046500199</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33319,7 @@
         <v>-9675095.778500199</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33352,7 @@
         <v>-9675345.377500199</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33385,7 @@
         <v>-9675345.377500199</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33418,7 @@
         <v>-9673316.203500198</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33451,7 @@
         <v>-9676185.165500198</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33484,7 @@
         <v>-9679432.354500197</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +33517,7 @@
         <v>-9755037.974600198</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +33550,7 @@
         <v>-9753505.348600198</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +33583,7 @@
         <v>-9755815.540600197</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33616,7 +33616,7 @@
         <v>-9749098.621600198</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33649,7 +33649,7 @@
         <v>-9744440.422600199</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +33682,7 @@
         <v>-9743990.561600199</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +33715,7 @@
         <v>-9742797.999600198</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +33748,7 @@
         <v>-9744840.081600199</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +33781,7 @@
         <v>-9742017.216600198</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +33814,7 @@
         <v>-9742017.216600198</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +33847,7 @@
         <v>-9743197.129600199</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +33880,7 @@
         <v>-9741183.6456002</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +33913,7 @@
         <v>-9737814.746600199</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +33946,7 @@
         <v>-9744831.502300199</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +33979,7 @@
         <v>-9703309.2093002</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34012,7 +34012,7 @@
         <v>-9703309.2093002</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34045,7 +34045,7 @@
         <v>-9703309.2093002</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34078,7 @@
         <v>-9701163.115300199</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34111,7 @@
         <v>-9704273.515300199</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34144,7 +34144,7 @@
         <v>-9700098.536300199</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34177,7 @@
         <v>-9699898.205300199</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34210,7 @@
         <v>-9699242.166300198</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34243,7 @@
         <v>-9699242.166300198</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34276,7 @@
         <v>-9695831.319300199</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34309,7 @@
         <v>-9699809.991300199</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34342,7 @@
         <v>-9700596.7093002</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34375,7 @@
         <v>-9701969.765300199</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34408,7 @@
         <v>-9704576.8843002</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34441,7 @@
         <v>-9697680.673300201</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34474,7 @@
         <v>-9693527.059300201</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +34507,7 @@
         <v>-9692591.575300202</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +34540,7 @@
         <v>-9639647.939300202</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +34573,7 @@
         <v>-9636383.697300201</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34606,7 +34606,7 @@
         <v>-9640833.778300202</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34639,7 +34639,7 @@
         <v>-9625359.769300202</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34672,7 +34672,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -34705,7 +34705,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -34738,7 +34738,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -34771,7 +34771,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -34804,7 +34804,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +34837,7 @@
         <v>-9624553.886300202</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -34870,7 +34870,7 @@
         <v>-9682054.117900202</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -34903,7 +34903,7 @@
         <v>-9682054.117900202</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -34936,7 +34936,7 @@
         <v>-9940192.433900202</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -34969,7 +34969,7 @@
         <v>-9486201.694900202</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -35002,7 +35002,7 @@
         <v>-10328110.0599002</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -35035,7 +35035,7 @@
         <v>-10328110.0599002</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -35068,7 +35068,7 @@
         <v>-11775482.5848002</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -35101,7 +35101,7 @@
         <v>-11607780.1535002</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -35134,7 +35134,7 @@
         <v>-11617055.9008002</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -35167,7 +35167,7 @@
         <v>-11617055.9008002</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -35200,7 +35200,7 @@
         <v>-12687695.0258002</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -35233,7 +35233,7 @@
         <v>-12687695.0258002</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -35266,7 +35266,7 @@
         <v>-14063216.8538002</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -35299,7 +35299,7 @@
         <v>-13765531.5798002</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -35365,7 +35365,7 @@
         <v>-16335248.3098002</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -38269,11 +38269,17 @@
         <v>-26208793.6855002</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38302,11 +38308,17 @@
         <v>-26208793.6855002</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38335,11 +38347,17 @@
         <v>-26208793.6855002</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38368,11 +38386,17 @@
         <v>-26035702.2715002</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38401,11 +38425,17 @@
         <v>-26242952.2825002</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>3.986</v>
+      </c>
       <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38434,11 +38464,17 @@
         <v>-26249614.3325002</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38467,11 +38503,17 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>3.983</v>
+      </c>
       <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38500,11 +38542,17 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38533,11 +38581,17 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38566,11 +38620,17 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38599,11 +38659,17 @@
         <v>-26213336.1565002</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38632,11 +38698,17 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>3.984</v>
+      </c>
       <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38665,11 +38737,17 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>3.979</v>
+      </c>
       <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38698,11 +38776,17 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>3.979</v>
+      </c>
       <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38731,11 +38815,17 @@
         <v>-26470778.4933002</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>3.979</v>
+      </c>
       <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38764,11 +38854,17 @@
         <v>-26455753.0039002</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>3.979</v>
+      </c>
       <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -38797,11 +38893,17 @@
         <v>-26525475.2329002</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>3.98</v>
+      </c>
       <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -38830,11 +38932,17 @@
         <v>-26659739.4709002</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>3.979</v>
+      </c>
       <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38863,11 +38971,17 @@
         <v>-26868194.0909002</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>3.977</v>
+      </c>
       <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -38904,7 +39018,7 @@
       <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1167" t="n">
@@ -39598,9 +39712,11 @@
         <v>-26186342.9403002</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3.978</v>
+      </c>
       <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
@@ -39635,9 +39751,11 @@
         <v>-26186342.9403002</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3.976</v>
+      </c>
       <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
@@ -39711,9 +39829,11 @@
         <v>-25624417.1823002</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3.978</v>
+      </c>
       <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
@@ -40372,9 +40492,11 @@
         <v>-27074236.58764403</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>3.976</v>
+      </c>
       <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
@@ -40409,9 +40531,11 @@
         <v>-26521115.15364403</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>3.969</v>
+      </c>
       <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
@@ -41343,9 +41467,11 @@
         <v>-25607267.42214403</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3.962</v>
+      </c>
       <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
@@ -41497,9 +41623,11 @@
         <v>-24563869.09614403</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>3.963</v>
+      </c>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
@@ -41534,9 +41662,11 @@
         <v>-24103052.15214403</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
@@ -41571,9 +41701,11 @@
         <v>-24172180.45714403</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>3.966</v>
+      </c>
       <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
@@ -41608,9 +41740,11 @@
         <v>-24464878.74814403</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
@@ -41645,9 +41779,11 @@
         <v>-24464878.74814403</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3.962</v>
+      </c>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
@@ -41682,9 +41818,11 @@
         <v>-25220279.76614403</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>3.962</v>
+      </c>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
@@ -41719,9 +41857,11 @@
         <v>-24337243.09014403</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3.961</v>
+      </c>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
@@ -42019,9 +42159,11 @@
         <v>-25843338.50654403</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>3.961</v>
+      </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
